--- a/data/trans_orig/IP05A01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP05A01-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C0DE60C-8692-427B-BB2C-D0DA8374EA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D26BD4A-0F07-4A5C-8550-0CE8B0F193AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3300DF5C-B860-4AA7-9011-838BF214518F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{785399A8-1044-41B2-B3B8-7601AF11E503}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="530">
   <si>
     <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2007 (Tasa respuesta: 99,81%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>48,66%</t>
   </si>
   <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
   </si>
   <si>
     <t>50,58%</t>
   </si>
   <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
   </si>
   <si>
     <t>49,56%</t>
   </si>
   <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -107,1510 +107,1501 @@
     <t>38,88%</t>
   </si>
   <si>
-    <t>32,14%</t>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
   </si>
   <si>
     <t>45,42%</t>
   </si>
   <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2012 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2016 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
   </si>
   <si>
     <t>11,68%</t>
   </si>
   <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
   </si>
   <si>
     <t>13,97%</t>
   </si>
   <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2012 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2015 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
     <t>6,41%</t>
   </si>
   <si>
     <t>80,4%</t>
   </si>
   <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
   </si>
   <si>
     <t>78,79%</t>
   </si>
   <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
   </si>
   <si>
     <t>79,64%</t>
   </si>
   <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
   </si>
   <si>
     <t>14,07%</t>
   </si>
   <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
   </si>
   <si>
     <t>16,87%</t>
   </si>
   <si>
-    <t>13,96%</t>
+    <t>13,94%</t>
   </si>
   <si>
     <t>20,5%</t>
@@ -1619,28 +1610,25 @@
     <t>15,4%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>4,05%</t>
+    <t>3,94%</t>
   </si>
 </sst>
 </file>
@@ -2052,7 +2040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636B7831-CF5E-43E1-B789-80CFFE38C923}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7560866-5F71-480B-A496-70644EEEC971}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2645,7 +2633,7 @@
         <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>78</v>
@@ -2654,13 +2642,13 @@
         <v>51915</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>153</v>
@@ -2669,13 +2657,13 @@
         <v>102385</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2678,13 @@
         <v>15942</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -2705,13 +2693,13 @@
         <v>11948</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -2720,13 +2708,13 @@
         <v>27890</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,7 +2770,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2794,13 +2782,13 @@
         <v>104151</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>139</v>
@@ -2809,13 +2797,13 @@
         <v>93858</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>296</v>
@@ -2824,13 +2812,13 @@
         <v>198009</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,13 +2833,13 @@
         <v>79429</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>113</v>
@@ -2860,13 +2848,13 @@
         <v>76936</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>232</v>
@@ -2875,13 +2863,13 @@
         <v>156365</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,13 +2884,13 @@
         <v>22469</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>33</v>
@@ -2911,13 +2899,13 @@
         <v>22616</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>67</v>
@@ -2926,13 +2914,13 @@
         <v>45084</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +2988,13 @@
         <v>364726</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>513</v>
@@ -3015,13 +3003,13 @@
         <v>343698</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>1063</v>
@@ -3030,10 +3018,10 @@
         <v>708424</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>129</v>
@@ -3054,10 +3042,10 @@
         <v>130</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H21" s="7">
         <v>390</v>
@@ -3066,13 +3054,13 @@
         <v>260445</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M21" s="7">
         <v>812</v>
@@ -3081,13 +3069,13 @@
         <v>543085</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,13 +3090,13 @@
         <v>73989</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H22" s="7">
         <v>113</v>
@@ -3117,13 +3105,13 @@
         <v>75665</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>225</v>
@@ -3132,13 +3120,13 @@
         <v>149653</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,7 +3182,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3214,7 +3202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AABA50ED-AE3B-4F77-9B71-9172194EFB2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8476E3-F796-4F9D-8CAB-9E5AA31938F7}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3231,7 +3219,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3338,13 +3326,13 @@
         <v>110367</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H4" s="7">
         <v>149</v>
@@ -3353,13 +3341,13 @@
         <v>100228</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M4" s="7">
         <v>305</v>
@@ -3368,13 +3356,13 @@
         <v>210595</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,13 +3377,13 @@
         <v>30785</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H5" s="7">
         <v>54</v>
@@ -3404,13 +3392,13 @@
         <v>35439</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M5" s="7">
         <v>98</v>
@@ -3419,13 +3407,13 @@
         <v>66223</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3428,13 @@
         <v>4838</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -3455,13 +3443,13 @@
         <v>11094</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M6" s="7">
         <v>23</v>
@@ -3470,13 +3458,13 @@
         <v>15932</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,13 +3532,13 @@
         <v>183024</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H8" s="7">
         <v>250</v>
@@ -3559,13 +3547,13 @@
         <v>173495</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M8" s="7">
         <v>506</v>
@@ -3574,13 +3562,13 @@
         <v>356519</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3583,13 @@
         <v>70215</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H9" s="7">
         <v>69</v>
@@ -3610,13 +3598,13 @@
         <v>48499</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M9" s="7">
         <v>166</v>
@@ -3625,13 +3613,13 @@
         <v>118713</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,13 +3634,13 @@
         <v>15145</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -3661,13 +3649,13 @@
         <v>14257</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>198</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -3676,13 +3664,13 @@
         <v>29402</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,13 +3738,13 @@
         <v>109134</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H12" s="7">
         <v>153</v>
@@ -3765,13 +3753,13 @@
         <v>106923</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M12" s="7">
         <v>310</v>
@@ -3780,13 +3768,13 @@
         <v>216056</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,13 +3789,13 @@
         <v>37580</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -3816,13 +3804,13 @@
         <v>38132</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>107</v>
@@ -3831,13 +3819,13 @@
         <v>75712</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,13 +3840,13 @@
         <v>11857</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -3867,13 +3855,13 @@
         <v>11988</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -3882,13 +3870,13 @@
         <v>23845</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,7 +3932,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3956,13 +3944,13 @@
         <v>128951</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H16" s="7">
         <v>158</v>
@@ -3971,13 +3959,13 @@
         <v>110280</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M16" s="7">
         <v>346</v>
@@ -3986,13 +3974,13 @@
         <v>239231</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,13 +3995,13 @@
         <v>40258</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H17" s="7">
         <v>67</v>
@@ -4022,13 +4010,13 @@
         <v>47918</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>128</v>
@@ -4037,13 +4025,13 @@
         <v>88176</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4046,13 @@
         <v>10746</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -4073,13 +4061,13 @@
         <v>12371</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>250</v>
+        <v>88</v>
       </c>
       <c r="M18" s="7">
         <v>33</v>
@@ -4088,13 +4076,13 @@
         <v>23117</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4150,13 @@
         <v>531476</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H20" s="7">
         <v>710</v>
@@ -4177,13 +4165,13 @@
         <v>490926</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M20" s="7">
         <v>1467</v>
@@ -4192,13 +4180,13 @@
         <v>1022402</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,13 +4201,13 @@
         <v>178837</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H21" s="7">
         <v>243</v>
@@ -4228,13 +4216,13 @@
         <v>169987</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M21" s="7">
         <v>499</v>
@@ -4243,13 +4231,13 @@
         <v>348825</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4252,13 @@
         <v>42587</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>71</v>
@@ -4279,13 +4267,13 @@
         <v>49709</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>131</v>
@@ -4294,13 +4282,13 @@
         <v>92297</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,7 +4344,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4376,7 +4364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CFA0F9-BE25-44CC-A95E-A6F791069A9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1F89E5-B02F-44F7-92A5-A21A3A34FA82}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4393,7 +4381,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4500,13 +4488,13 @@
         <v>95743</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H4" s="7">
         <v>154</v>
@@ -4515,13 +4503,13 @@
         <v>96004</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M4" s="7">
         <v>296</v>
@@ -4530,13 +4518,13 @@
         <v>191746</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4539,13 @@
         <v>22702</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H5" s="7">
         <v>43</v>
@@ -4566,13 +4554,13 @@
         <v>26455</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M5" s="7">
         <v>79</v>
@@ -4581,13 +4569,13 @@
         <v>49156</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,13 +4590,13 @@
         <v>5720</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -4617,13 +4605,13 @@
         <v>9196</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M6" s="7">
         <v>23</v>
@@ -4632,13 +4620,13 @@
         <v>14915</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4694,13 @@
         <v>191941</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H8" s="7">
         <v>243</v>
@@ -4721,13 +4709,13 @@
         <v>154120</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M8" s="7">
         <v>524</v>
@@ -4736,13 +4724,13 @@
         <v>346061</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,13 +4745,13 @@
         <v>52232</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H9" s="7">
         <v>76</v>
@@ -4772,13 +4760,13 @@
         <v>48169</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M9" s="7">
         <v>154</v>
@@ -4787,13 +4775,13 @@
         <v>100401</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,13 +4796,13 @@
         <v>13889</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -4823,13 +4811,13 @@
         <v>8227</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -4838,13 +4826,13 @@
         <v>22116</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,13 +4900,13 @@
         <v>141308</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H12" s="7">
         <v>209</v>
@@ -4927,13 +4915,13 @@
         <v>146584</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M12" s="7">
         <v>404</v>
@@ -4942,13 +4930,13 @@
         <v>287892</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,13 +4951,13 @@
         <v>34841</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -4978,13 +4966,13 @@
         <v>33684</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M13" s="7">
         <v>100</v>
@@ -4993,13 +4981,13 @@
         <v>68524</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,13 +5002,13 @@
         <v>12423</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -5029,13 +5017,13 @@
         <v>8632</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -5044,13 +5032,13 @@
         <v>21055</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>198</v>
+        <v>355</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,7 +5094,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5118,13 +5106,13 @@
         <v>112466</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H16" s="7">
         <v>170</v>
@@ -5133,13 +5121,13 @@
         <v>119882</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>362</v>
+        <v>149</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M16" s="7">
         <v>322</v>
@@ -5148,13 +5136,13 @@
         <v>232349</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5157,13 @@
         <v>51663</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H17" s="7">
         <v>59</v>
@@ -5184,13 +5172,13 @@
         <v>40235</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M17" s="7">
         <v>129</v>
@@ -5199,13 +5187,13 @@
         <v>91898</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5208,13 @@
         <v>9919</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -5235,13 +5223,13 @@
         <v>12015</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -5250,13 +5238,13 @@
         <v>21934</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,13 +5312,13 @@
         <v>541457</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>386</v>
+        <v>312</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H20" s="7">
         <v>776</v>
@@ -5339,13 +5327,13 @@
         <v>516591</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M20" s="7">
         <v>1546</v>
@@ -5354,13 +5342,13 @@
         <v>1058048</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,13 +5363,13 @@
         <v>161437</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>295</v>
+        <v>391</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>395</v>
+        <v>216</v>
       </c>
       <c r="H21" s="7">
         <v>228</v>
@@ -5390,13 +5378,13 @@
         <v>148543</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>319</v>
+        <v>393</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M21" s="7">
         <v>462</v>
@@ -5405,13 +5393,13 @@
         <v>309980</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5414,13 @@
         <v>41950</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>399</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H22" s="7">
         <v>56</v>
@@ -5441,13 +5429,13 @@
         <v>38070</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M22" s="7">
         <v>117</v>
@@ -5456,13 +5444,13 @@
         <v>80020</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>406</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>408</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5518,7 +5506,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -5538,7 +5526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BD6129-2BCD-499B-8A4C-7B9D5E18C685}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1047D74-2821-4DAC-8880-17A5D97E3BD5}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5555,7 +5543,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5662,13 +5650,13 @@
         <v>46101</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H4" s="7">
         <v>94</v>
@@ -5677,13 +5665,13 @@
         <v>49480</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M4" s="7">
         <v>189</v>
@@ -5692,13 +5680,13 @@
         <v>95581</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,13 +5701,13 @@
         <v>8857</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>212</v>
+        <v>417</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -5728,13 +5716,13 @@
         <v>7304</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -5743,13 +5731,13 @@
         <v>16160</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>421</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,13 +5752,13 @@
         <v>3545</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -5779,13 +5767,13 @@
         <v>585</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -5794,13 +5782,13 @@
         <v>4130</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,13 +5856,13 @@
         <v>136981</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="H8" s="7">
         <v>209</v>
@@ -5883,13 +5871,13 @@
         <v>126601</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="M8" s="7">
         <v>425</v>
@@ -5898,13 +5886,13 @@
         <v>263582</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,13 +5907,13 @@
         <v>27183</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>446</v>
+        <v>187</v>
       </c>
       <c r="H9" s="7">
         <v>31</v>
@@ -5934,13 +5922,13 @@
         <v>19318</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M9" s="7">
         <v>75</v>
@@ -5949,13 +5937,13 @@
         <v>46500</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>122</v>
+        <v>447</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,13 +5958,13 @@
         <v>11136</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -5985,13 +5973,13 @@
         <v>11674</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>249</v>
+        <v>453</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -6000,13 +5988,13 @@
         <v>22810</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,13 +6062,13 @@
         <v>161598</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="H12" s="7">
         <v>184</v>
@@ -6089,13 +6077,13 @@
         <v>137742</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="M12" s="7">
         <v>382</v>
@@ -6104,13 +6092,13 @@
         <v>299340</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6113,13 @@
         <v>31297</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -6140,13 +6128,13 @@
         <v>31463</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
@@ -6155,13 +6143,13 @@
         <v>62761</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,13 +6164,13 @@
         <v>8681</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -6197,7 +6185,7 @@
         <v>480</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>481</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>21</v>
@@ -6206,13 +6194,13 @@
         <v>16421</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,7 +6256,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6280,13 +6268,13 @@
         <v>238082</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="H16" s="7">
         <v>273</v>
@@ -6295,13 +6283,13 @@
         <v>200282</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="M16" s="7">
         <v>555</v>
@@ -6310,13 +6298,13 @@
         <v>438364</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,13 +6319,13 @@
         <v>34619</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="H17" s="7">
         <v>57</v>
@@ -6346,13 +6334,13 @@
         <v>52031</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="M17" s="7">
         <v>97</v>
@@ -6361,13 +6349,13 @@
         <v>86650</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>296</v>
+        <v>158</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,13 +6370,13 @@
         <v>16723</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -6397,13 +6385,13 @@
         <v>8320</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>506</v>
+        <v>322</v>
       </c>
       <c r="M18" s="7">
         <v>32</v>
@@ -6412,13 +6400,13 @@
         <v>25043</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,13 +6474,13 @@
         <v>582762</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H20" s="7">
         <v>760</v>
@@ -6501,13 +6489,13 @@
         <v>514105</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="M20" s="7">
         <v>1551</v>
@@ -6516,13 +6504,13 @@
         <v>1096868</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,13 +6525,13 @@
         <v>101955</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H21" s="7">
         <v>141</v>
@@ -6552,13 +6540,13 @@
         <v>110115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="M21" s="7">
         <v>272</v>
@@ -6567,13 +6555,13 @@
         <v>212071</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6588,13 +6576,13 @@
         <v>40085</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>406</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -6603,13 +6591,13 @@
         <v>28319</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>531</v>
+        <v>92</v>
       </c>
       <c r="M22" s="7">
         <v>95</v>
@@ -6618,13 +6606,13 @@
         <v>68404</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6680,7 +6668,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP05A01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP05A01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D26BD4A-0F07-4A5C-8550-0CE8B0F193AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2E5A6E6-BC4B-4CBF-952D-AA1FDD4C3242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{785399A8-1044-41B2-B3B8-7601AF11E503}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{402F1DAE-3191-4C24-BC58-35D944F29EE5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="539">
   <si>
     <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2007 (Tasa respuesta: 99,81%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,1561 +74,1588 @@
     <t>Nada</t>
   </si>
   <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
     <t>48,66%</t>
   </si>
   <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
   </si>
   <si>
     <t>49,56%</t>
   </si>
   <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
   </si>
   <si>
     <t>Algo</t>
   </si>
   <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
     <t>38,88%</t>
   </si>
   <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
   </si>
   <si>
     <t>37,72%</t>
   </si>
   <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
   </si>
   <si>
     <t>Mucho</t>
   </si>
   <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
     <t>12,46%</t>
   </si>
   <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2012 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2016 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
     <t>8,09%</t>
   </si>
   <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2012 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2016 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
   </si>
   <si>
     <t>4,34%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
   </si>
 </sst>
 </file>
@@ -2040,7 +2067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7560866-5F71-480B-A496-70644EEEC971}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AAB863-45AA-4F4F-B8F3-4014CD7935CD}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2158,10 +2185,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D4" s="7">
-        <v>59060</v>
+        <v>53705</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2173,10 +2200,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I4" s="7">
-        <v>53705</v>
+        <v>59060</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2209,10 +2236,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D5" s="7">
-        <v>47198</v>
+        <v>38638</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2224,10 +2251,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I5" s="7">
-        <v>38638</v>
+        <v>47198</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2260,10 +2287,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="7">
-        <v>15122</v>
+        <v>13828</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2275,10 +2302,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I6" s="7">
-        <v>13828</v>
+        <v>15122</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2311,25 +2338,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>162</v>
+      </c>
+      <c r="D7" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>182</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>121380</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>162</v>
-      </c>
-      <c r="I7" s="7">
-        <v>106171</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2364,10 +2391,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D8" s="7">
-        <v>126412</v>
+        <v>132449</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2379,10 +2406,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I8" s="7">
-        <v>132449</v>
+        <v>126412</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2415,10 +2442,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="D9" s="7">
-        <v>105543</v>
+        <v>92955</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2430,10 +2457,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="I9" s="7">
-        <v>92955</v>
+        <v>105543</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -2466,10 +2493,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D10" s="7">
-        <v>20456</v>
+        <v>27273</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -2481,10 +2508,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I10" s="7">
-        <v>27273</v>
+        <v>20456</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -2517,25 +2544,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>378</v>
+      </c>
+      <c r="D11" s="7">
+        <v>252678</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>380</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>252411</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>378</v>
-      </c>
-      <c r="I11" s="7">
-        <v>252678</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2570,10 +2597,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D12" s="7">
-        <v>75103</v>
+        <v>63684</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -2585,10 +2612,10 @@
         <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="I12" s="7">
-        <v>63684</v>
+        <v>75103</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -2621,10 +2648,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D13" s="7">
-        <v>50470</v>
+        <v>51915</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -2636,10 +2663,10 @@
         <v>81</v>
       </c>
       <c r="H13" s="7">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I13" s="7">
-        <v>51915</v>
+        <v>50470</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>82</v>
@@ -2672,10 +2699,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D14" s="7">
-        <v>15942</v>
+        <v>11948</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -2687,10 +2714,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I14" s="7">
-        <v>11948</v>
+        <v>15942</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -2723,25 +2750,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>191</v>
+      </c>
+      <c r="D15" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>212</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>141515</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>191</v>
-      </c>
-      <c r="I15" s="7">
-        <v>127548</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -2776,10 +2803,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D16" s="7">
-        <v>104151</v>
+        <v>93858</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>98</v>
@@ -2791,10 +2818,10 @@
         <v>100</v>
       </c>
       <c r="H16" s="7">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="I16" s="7">
-        <v>93858</v>
+        <v>104151</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>101</v>
@@ -2827,10 +2854,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D17" s="7">
-        <v>79429</v>
+        <v>76936</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>107</v>
@@ -2839,22 +2866,22 @@
         <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="7">
+        <v>119</v>
+      </c>
+      <c r="I17" s="7">
+        <v>79429</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="7">
-        <v>113</v>
-      </c>
-      <c r="I17" s="7">
-        <v>76936</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>232</v>
@@ -2863,13 +2890,13 @@
         <v>156365</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,31 +2905,31 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>33</v>
+      </c>
+      <c r="D18" s="7">
+        <v>22616</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="7">
         <v>34</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>22469</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="7">
-        <v>33</v>
-      </c>
-      <c r="I18" s="7">
-        <v>22616</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>120</v>
@@ -2929,25 +2956,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>285</v>
+      </c>
+      <c r="D19" s="7">
+        <v>193410</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>310</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>206049</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>285</v>
-      </c>
-      <c r="I19" s="7">
-        <v>193410</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2982,10 +3009,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>550</v>
+        <v>513</v>
       </c>
       <c r="D20" s="7">
-        <v>364726</v>
+        <v>343698</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>124</v>
@@ -2997,10 +3024,10 @@
         <v>126</v>
       </c>
       <c r="H20" s="7">
-        <v>513</v>
+        <v>550</v>
       </c>
       <c r="I20" s="7">
-        <v>343698</v>
+        <v>364726</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>124</v>
@@ -3021,10 +3048,10 @@
         <v>124</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,34 +3060,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>390</v>
+      </c>
+      <c r="D21" s="7">
+        <v>260445</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="7">
         <v>422</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>282640</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H21" s="7">
-        <v>390</v>
-      </c>
-      <c r="I21" s="7">
-        <v>260445</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>812</v>
@@ -3069,13 +3096,13 @@
         <v>543085</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,34 +3111,34 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>113</v>
+      </c>
+      <c r="D22" s="7">
+        <v>75665</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="7">
         <v>112</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>73989</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H22" s="7">
-        <v>113</v>
-      </c>
-      <c r="I22" s="7">
-        <v>75665</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>225</v>
@@ -3120,13 +3147,13 @@
         <v>149653</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,25 +3162,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1016</v>
+      </c>
+      <c r="D23" s="7">
+        <v>679808</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1084</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>721355</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I23" s="7">
-        <v>679808</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -3182,7 +3209,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3202,7 +3229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8476E3-F796-4F9D-8CAB-9E5AA31938F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04015729-87E5-4805-A0C8-DCB490F50BFE}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3219,7 +3246,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3320,34 +3347,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>149</v>
+      </c>
+      <c r="D4" s="7">
+        <v>100228</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="7">
         <v>156</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>110367</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H4" s="7">
-        <v>149</v>
-      </c>
-      <c r="I4" s="7">
-        <v>100228</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M4" s="7">
         <v>305</v>
@@ -3356,13 +3383,13 @@
         <v>210595</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,34 +3398,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>54</v>
+      </c>
+      <c r="D5" s="7">
+        <v>35439</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="7">
         <v>44</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>30785</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H5" s="7">
-        <v>54</v>
-      </c>
-      <c r="I5" s="7">
-        <v>35439</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M5" s="7">
         <v>98</v>
@@ -3407,13 +3434,13 @@
         <v>66223</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,34 +3449,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>11094</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="7">
         <v>7</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>4838</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H6" s="7">
-        <v>16</v>
-      </c>
-      <c r="I6" s="7">
-        <v>11094</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M6" s="7">
         <v>23</v>
@@ -3458,13 +3485,13 @@
         <v>15932</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,25 +3500,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>219</v>
+      </c>
+      <c r="D7" s="7">
+        <v>146761</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>207</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>145990</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>219</v>
-      </c>
-      <c r="I7" s="7">
-        <v>146761</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3526,34 +3553,34 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>250</v>
+      </c>
+      <c r="D8" s="7">
+        <v>173495</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="7">
         <v>256</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>183024</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H8" s="7">
-        <v>250</v>
-      </c>
-      <c r="I8" s="7">
-        <v>173495</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M8" s="7">
         <v>506</v>
@@ -3562,13 +3589,13 @@
         <v>356519</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,34 +3604,34 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>69</v>
+      </c>
+      <c r="D9" s="7">
+        <v>48499</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H9" s="7">
         <v>97</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>70215</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H9" s="7">
-        <v>69</v>
-      </c>
-      <c r="I9" s="7">
-        <v>48499</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M9" s="7">
         <v>166</v>
@@ -3613,13 +3640,13 @@
         <v>118713</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,34 +3655,34 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>21</v>
+      </c>
+      <c r="D10" s="7">
+        <v>14257</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" s="7">
         <v>20</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>15145</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H10" s="7">
-        <v>21</v>
-      </c>
-      <c r="I10" s="7">
-        <v>14257</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -3664,13 +3691,13 @@
         <v>29402</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,25 +3706,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>340</v>
+      </c>
+      <c r="D11" s="7">
+        <v>236250</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>373</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>268384</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>340</v>
-      </c>
-      <c r="I11" s="7">
-        <v>236250</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3732,34 +3759,34 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>153</v>
+      </c>
+      <c r="D12" s="7">
+        <v>106923</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H12" s="7">
         <v>157</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>109134</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H12" s="7">
-        <v>153</v>
-      </c>
-      <c r="I12" s="7">
-        <v>106923</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M12" s="7">
         <v>310</v>
@@ -3768,13 +3795,13 @@
         <v>216056</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,34 +3810,34 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>53</v>
+      </c>
+      <c r="D13" s="7">
+        <v>38132</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H13" s="7">
         <v>54</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>37580</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H13" s="7">
-        <v>53</v>
-      </c>
-      <c r="I13" s="7">
-        <v>38132</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
       <c r="M13" s="7">
         <v>107</v>
@@ -3819,13 +3846,13 @@
         <v>75712</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,31 +3864,31 @@
         <v>17</v>
       </c>
       <c r="D14" s="7">
-        <v>11857</v>
+        <v>11988</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
       </c>
       <c r="I14" s="7">
-        <v>11988</v>
+        <v>11857</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -3870,13 +3897,13 @@
         <v>23845</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,25 +3912,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>223</v>
+      </c>
+      <c r="D15" s="7">
+        <v>157043</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>228</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>158571</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>223</v>
-      </c>
-      <c r="I15" s="7">
-        <v>157043</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3938,34 +3965,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>158</v>
+      </c>
+      <c r="D16" s="7">
+        <v>110280</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H16" s="7">
         <v>188</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>128951</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H16" s="7">
-        <v>158</v>
-      </c>
-      <c r="I16" s="7">
-        <v>110280</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M16" s="7">
         <v>346</v>
@@ -3974,13 +4001,13 @@
         <v>239231</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,34 +4016,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>67</v>
+      </c>
+      <c r="D17" s="7">
+        <v>47918</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H17" s="7">
         <v>61</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>40258</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H17" s="7">
-        <v>67</v>
-      </c>
-      <c r="I17" s="7">
-        <v>47918</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M17" s="7">
         <v>128</v>
@@ -4025,13 +4052,13 @@
         <v>88176</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,34 +4067,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>17</v>
+      </c>
+      <c r="D18" s="7">
+        <v>12371</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H18" s="7">
         <v>16</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>10746</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H18" s="7">
-        <v>17</v>
-      </c>
-      <c r="I18" s="7">
-        <v>12371</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>88</v>
+        <v>251</v>
       </c>
       <c r="M18" s="7">
         <v>33</v>
@@ -4076,13 +4103,13 @@
         <v>23117</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,25 +4118,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>242</v>
+      </c>
+      <c r="D19" s="7">
+        <v>170569</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>265</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>179955</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>242</v>
-      </c>
-      <c r="I19" s="7">
-        <v>170569</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4144,34 +4171,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>710</v>
+      </c>
+      <c r="D20" s="7">
+        <v>490926</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H20" s="7">
         <v>757</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>531476</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H20" s="7">
-        <v>710</v>
-      </c>
-      <c r="I20" s="7">
-        <v>490926</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>1467</v>
@@ -4180,13 +4207,13 @@
         <v>1022402</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,34 +4222,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>243</v>
+      </c>
+      <c r="D21" s="7">
+        <v>169987</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H21" s="7">
         <v>256</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>178837</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H21" s="7">
-        <v>243</v>
-      </c>
-      <c r="I21" s="7">
-        <v>169987</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M21" s="7">
         <v>499</v>
@@ -4231,13 +4258,13 @@
         <v>348825</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,34 +4273,34 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>71</v>
+      </c>
+      <c r="D22" s="7">
+        <v>49709</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H22" s="7">
         <v>60</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>42587</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H22" s="7">
-        <v>71</v>
-      </c>
-      <c r="I22" s="7">
-        <v>49709</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M22" s="7">
         <v>131</v>
@@ -4282,13 +4309,13 @@
         <v>92297</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,25 +4324,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1024</v>
+      </c>
+      <c r="D23" s="7">
+        <v>710623</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1073</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>752900</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1024</v>
-      </c>
-      <c r="I23" s="7">
-        <v>710623</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -4344,7 +4371,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4364,7 +4391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1F89E5-B02F-44F7-92A5-A21A3A34FA82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7DE3F5-63EE-4B32-ACDF-C4F5571BEF65}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4381,7 +4408,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4482,34 +4509,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>154</v>
+      </c>
+      <c r="D4" s="7">
+        <v>96004</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H4" s="7">
         <v>142</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>95743</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H4" s="7">
-        <v>154</v>
-      </c>
-      <c r="I4" s="7">
-        <v>96004</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M4" s="7">
         <v>296</v>
@@ -4518,13 +4545,13 @@
         <v>191746</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,34 +4560,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>43</v>
+      </c>
+      <c r="D5" s="7">
+        <v>26455</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H5" s="7">
         <v>36</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>22702</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H5" s="7">
-        <v>43</v>
-      </c>
-      <c r="I5" s="7">
-        <v>26455</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M5" s="7">
         <v>79</v>
@@ -4569,13 +4596,13 @@
         <v>49156</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,34 +4611,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9196</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H6" s="7">
         <v>9</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>5720</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H6" s="7">
-        <v>14</v>
-      </c>
-      <c r="I6" s="7">
-        <v>9196</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M6" s="7">
         <v>23</v>
@@ -4620,13 +4647,13 @@
         <v>14915</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>303</v>
+        <v>195</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,25 +4662,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>211</v>
+      </c>
+      <c r="D7" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>187</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>124164</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>211</v>
-      </c>
-      <c r="I7" s="7">
-        <v>131654</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4688,34 +4715,34 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>243</v>
+      </c>
+      <c r="D8" s="7">
+        <v>154120</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H8" s="7">
         <v>281</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>191941</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H8" s="7">
-        <v>243</v>
-      </c>
-      <c r="I8" s="7">
-        <v>154120</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M8" s="7">
         <v>524</v>
@@ -4724,13 +4751,13 @@
         <v>346061</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,34 +4766,34 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>76</v>
+      </c>
+      <c r="D9" s="7">
+        <v>48169</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H9" s="7">
         <v>78</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>52232</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H9" s="7">
-        <v>76</v>
-      </c>
-      <c r="I9" s="7">
-        <v>48169</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>214</v>
+        <v>320</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M9" s="7">
         <v>154</v>
@@ -4775,13 +4802,13 @@
         <v>100401</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,34 +4817,34 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7">
+        <v>8227</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H10" s="7">
         <v>21</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>13889</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H10" s="7">
-        <v>13</v>
-      </c>
-      <c r="I10" s="7">
-        <v>8227</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -4826,13 +4853,13 @@
         <v>22116</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,25 +4868,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>332</v>
+      </c>
+      <c r="D11" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>380</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>258061</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>332</v>
-      </c>
-      <c r="I11" s="7">
-        <v>210517</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4894,34 +4921,34 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>209</v>
+      </c>
+      <c r="D12" s="7">
+        <v>146584</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H12" s="7">
         <v>195</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141308</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="H12" s="7">
-        <v>209</v>
-      </c>
-      <c r="I12" s="7">
-        <v>146584</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M12" s="7">
         <v>404</v>
@@ -4930,13 +4957,13 @@
         <v>287892</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,31 +4975,31 @@
         <v>50</v>
       </c>
       <c r="D13" s="7">
-        <v>34841</v>
+        <v>33684</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
       </c>
       <c r="I13" s="7">
-        <v>33684</v>
+        <v>34841</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M13" s="7">
         <v>100</v>
@@ -4981,13 +5008,13 @@
         <v>68524</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,34 +5023,34 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>13</v>
+      </c>
+      <c r="D14" s="7">
+        <v>8632</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H14" s="7">
         <v>18</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>12423</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H14" s="7">
-        <v>13</v>
-      </c>
-      <c r="I14" s="7">
-        <v>8632</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -5032,13 +5059,13 @@
         <v>21055</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,25 +5074,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>272</v>
+      </c>
+      <c r="D15" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>263</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>188572</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>272</v>
-      </c>
-      <c r="I15" s="7">
-        <v>188899</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5100,34 +5127,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>170</v>
+      </c>
+      <c r="D16" s="7">
+        <v>119882</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H16" s="7">
         <v>152</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>112466</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="H16" s="7">
-        <v>170</v>
-      </c>
-      <c r="I16" s="7">
-        <v>119882</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>149</v>
+        <v>364</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="M16" s="7">
         <v>322</v>
@@ -5136,13 +5163,13 @@
         <v>232349</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,34 +5178,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>59</v>
+      </c>
+      <c r="D17" s="7">
+        <v>40235</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H17" s="7">
         <v>70</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>51663</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="H17" s="7">
-        <v>59</v>
-      </c>
-      <c r="I17" s="7">
-        <v>40235</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M17" s="7">
         <v>129</v>
@@ -5187,13 +5214,13 @@
         <v>91898</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,34 +5229,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>16</v>
+      </c>
+      <c r="D18" s="7">
+        <v>12015</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H18" s="7">
         <v>13</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>9919</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="H18" s="7">
-        <v>16</v>
-      </c>
-      <c r="I18" s="7">
-        <v>12015</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>300</v>
+        <v>379</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -5238,13 +5265,13 @@
         <v>21934</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,25 +5280,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>245</v>
+      </c>
+      <c r="D19" s="7">
+        <v>172133</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>235</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>174048</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>245</v>
-      </c>
-      <c r="I19" s="7">
-        <v>172133</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5306,34 +5333,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>776</v>
+      </c>
+      <c r="D20" s="7">
+        <v>516591</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H20" s="7">
         <v>770</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>541457</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="H20" s="7">
-        <v>776</v>
-      </c>
-      <c r="I20" s="7">
-        <v>516591</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M20" s="7">
         <v>1546</v>
@@ -5342,13 +5369,13 @@
         <v>1058048</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,34 +5384,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>228</v>
+      </c>
+      <c r="D21" s="7">
+        <v>148543</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H21" s="7">
         <v>234</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>161437</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H21" s="7">
-        <v>228</v>
-      </c>
-      <c r="I21" s="7">
-        <v>148543</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>393</v>
+        <v>297</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="M21" s="7">
         <v>462</v>
@@ -5393,13 +5420,13 @@
         <v>309980</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,34 +5435,34 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>56</v>
+      </c>
+      <c r="D22" s="7">
+        <v>38070</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H22" s="7">
         <v>61</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>41950</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="H22" s="7">
-        <v>56</v>
-      </c>
-      <c r="I22" s="7">
-        <v>38070</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M22" s="7">
         <v>117</v>
@@ -5444,13 +5471,13 @@
         <v>80020</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>407</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>248</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,25 +5486,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1060</v>
+      </c>
+      <c r="D23" s="7">
+        <v>703204</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1065</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>744844</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1060</v>
-      </c>
-      <c r="I23" s="7">
-        <v>703204</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -5506,7 +5533,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -5526,7 +5553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1047D74-2821-4DAC-8880-17A5D97E3BD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9D43CC-19AE-4126-BD48-0DEA44E1378B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5543,7 +5570,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5644,49 +5671,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>94</v>
+      </c>
+      <c r="D4" s="7">
+        <v>49699</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="H4" s="7">
         <v>95</v>
       </c>
-      <c r="D4" s="7">
-        <v>46101</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="H4" s="7">
-        <v>94</v>
-      </c>
       <c r="I4" s="7">
-        <v>49480</v>
+        <v>48504</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="M4" s="7">
         <v>189</v>
       </c>
       <c r="N4" s="7">
-        <v>95581</v>
+        <v>98203</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,49 +5722,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7">
+        <v>7228</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="H5" s="7">
         <v>13</v>
       </c>
-      <c r="D5" s="7">
-        <v>8857</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="H5" s="7">
-        <v>14</v>
-      </c>
       <c r="I5" s="7">
-        <v>7304</v>
+        <v>9281</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
       </c>
       <c r="N5" s="7">
-        <v>16160</v>
+        <v>16509</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,49 +5773,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>584</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H6" s="7">
         <v>8</v>
       </c>
-      <c r="D6" s="7">
-        <v>3545</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
       <c r="I6" s="7">
-        <v>585</v>
+        <v>3659</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>429</v>
+        <v>225</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
       </c>
       <c r="N6" s="7">
-        <v>4130</v>
+        <v>4244</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,25 +5824,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>109</v>
+      </c>
+      <c r="D7" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>116</v>
       </c>
-      <c r="D7" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>109</v>
-      </c>
       <c r="I7" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -5830,7 +5857,7 @@
         <v>225</v>
       </c>
       <c r="N7" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -5850,49 +5877,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>209</v>
+      </c>
+      <c r="D8" s="7">
+        <v>127582</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="H8" s="7">
         <v>216</v>
       </c>
-      <c r="D8" s="7">
-        <v>136981</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="H8" s="7">
-        <v>209</v>
-      </c>
       <c r="I8" s="7">
-        <v>126601</v>
+        <v>143216</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M8" s="7">
         <v>425</v>
       </c>
       <c r="N8" s="7">
-        <v>263582</v>
+        <v>270799</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,49 +5928,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>31</v>
+      </c>
+      <c r="D9" s="7">
+        <v>18906</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="H9" s="7">
         <v>44</v>
       </c>
-      <c r="D9" s="7">
-        <v>27183</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H9" s="7">
-        <v>31</v>
-      </c>
       <c r="I9" s="7">
-        <v>19318</v>
+        <v>27883</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>446</v>
+        <v>400</v>
       </c>
       <c r="M9" s="7">
         <v>75</v>
       </c>
       <c r="N9" s="7">
-        <v>46500</v>
+        <v>46789</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,49 +5979,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7">
+        <v>11394</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="H10" s="7">
         <v>16</v>
       </c>
-      <c r="D10" s="7">
-        <v>11136</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="H10" s="7">
-        <v>17</v>
-      </c>
       <c r="I10" s="7">
-        <v>11674</v>
+        <v>11456</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
       </c>
       <c r="N10" s="7">
-        <v>22810</v>
+        <v>22849</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,25 +6030,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>257</v>
+      </c>
+      <c r="D11" s="7">
+        <v>157882</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>276</v>
       </c>
-      <c r="D11" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>257</v>
-      </c>
       <c r="I11" s="7">
-        <v>157593</v>
+        <v>182554</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -6036,7 +6063,7 @@
         <v>533</v>
       </c>
       <c r="N11" s="7">
-        <v>332892</v>
+        <v>340437</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -6056,49 +6083,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>184</v>
+      </c>
+      <c r="D12" s="7">
+        <v>136017</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H12" s="7">
         <v>198</v>
       </c>
-      <c r="D12" s="7">
-        <v>161598</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="H12" s="7">
-        <v>184</v>
-      </c>
       <c r="I12" s="7">
-        <v>137742</v>
+        <v>168547</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="M12" s="7">
         <v>382</v>
       </c>
       <c r="N12" s="7">
-        <v>299340</v>
+        <v>304563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,49 +6134,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>39</v>
+      </c>
+      <c r="D13" s="7">
+        <v>30239</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H13" s="7">
         <v>34</v>
       </c>
-      <c r="D13" s="7">
-        <v>31297</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="H13" s="7">
-        <v>39</v>
-      </c>
       <c r="I13" s="7">
-        <v>31463</v>
+        <v>33528</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>472</v>
+        <v>299</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
       </c>
       <c r="N13" s="7">
-        <v>62761</v>
+        <v>63767</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,49 +6185,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>11</v>
+      </c>
+      <c r="D14" s="7">
+        <v>7632</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="H14" s="7">
         <v>10</v>
       </c>
-      <c r="D14" s="7">
-        <v>8681</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="H14" s="7">
-        <v>11</v>
-      </c>
       <c r="I14" s="7">
-        <v>7740</v>
+        <v>9472</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>482</v>
       </c>
       <c r="M14" s="7">
         <v>21</v>
       </c>
       <c r="N14" s="7">
-        <v>16421</v>
+        <v>17104</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6209,25 +6236,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>234</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173888</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>242</v>
       </c>
-      <c r="D15" s="7">
-        <v>201577</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>234</v>
-      </c>
       <c r="I15" s="7">
-        <v>176945</v>
+        <v>211547</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -6242,7 +6269,7 @@
         <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>378522</v>
+        <v>385434</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -6262,49 +6289,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>273</v>
+      </c>
+      <c r="D16" s="7">
+        <v>198721</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="H16" s="7">
         <v>282</v>
       </c>
-      <c r="D16" s="7">
-        <v>238082</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="H16" s="7">
-        <v>273</v>
-      </c>
       <c r="I16" s="7">
-        <v>200282</v>
+        <v>253056</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M16" s="7">
         <v>555</v>
       </c>
       <c r="N16" s="7">
-        <v>438364</v>
+        <v>451776</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>493</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,49 +6340,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D17" s="7">
-        <v>34619</v>
+        <v>68661</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="H17" s="7">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="I17" s="7">
-        <v>52031</v>
+        <v>35293</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="M17" s="7">
         <v>97</v>
       </c>
       <c r="N17" s="7">
-        <v>86650</v>
+        <v>103954</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>158</v>
+        <v>501</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6364,49 +6391,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7">
+        <v>8076</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="H18" s="7">
         <v>20</v>
       </c>
-      <c r="D18" s="7">
-        <v>16723</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="H18" s="7">
-        <v>12</v>
-      </c>
       <c r="I18" s="7">
-        <v>8320</v>
+        <v>17134</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>322</v>
+        <v>509</v>
       </c>
       <c r="M18" s="7">
         <v>32</v>
       </c>
       <c r="N18" s="7">
-        <v>25043</v>
+        <v>25210</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6418,7 +6445,7 @@
         <v>342</v>
       </c>
       <c r="D19" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -6433,7 +6460,7 @@
         <v>342</v>
       </c>
       <c r="I19" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -6448,7 +6475,7 @@
         <v>684</v>
       </c>
       <c r="N19" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -6468,49 +6495,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>760</v>
+      </c>
+      <c r="D20" s="7">
+        <v>512019</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="H20" s="7">
         <v>791</v>
       </c>
-      <c r="D20" s="7">
-        <v>582762</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="H20" s="7">
-        <v>760</v>
-      </c>
       <c r="I20" s="7">
-        <v>514105</v>
+        <v>613322</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="M20" s="7">
         <v>1551</v>
       </c>
       <c r="N20" s="7">
-        <v>1096868</v>
+        <v>1125342</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6519,49 +6546,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>141</v>
+      </c>
+      <c r="D21" s="7">
+        <v>125033</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="H21" s="7">
         <v>131</v>
       </c>
-      <c r="D21" s="7">
-        <v>101955</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="H21" s="7">
-        <v>141</v>
-      </c>
       <c r="I21" s="7">
-        <v>110115</v>
+        <v>105984</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>520</v>
+        <v>115</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="M21" s="7">
         <v>272</v>
       </c>
       <c r="N21" s="7">
-        <v>212071</v>
+        <v>231018</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6570,49 +6597,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>41</v>
+      </c>
+      <c r="D22" s="7">
+        <v>27686</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="H22" s="7">
         <v>54</v>
       </c>
-      <c r="D22" s="7">
-        <v>40085</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="H22" s="7">
-        <v>41</v>
-      </c>
       <c r="I22" s="7">
-        <v>28319</v>
+        <v>41722</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>481</v>
+        <v>533</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>92</v>
+        <v>535</v>
       </c>
       <c r="M22" s="7">
         <v>95</v>
       </c>
       <c r="N22" s="7">
-        <v>68404</v>
+        <v>69408</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6621,25 +6648,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>942</v>
+      </c>
+      <c r="D23" s="7">
+        <v>664738</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>976</v>
       </c>
-      <c r="D23" s="7">
-        <v>724802</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>942</v>
-      </c>
       <c r="I23" s="7">
-        <v>652540</v>
+        <v>761028</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -6654,7 +6681,7 @@
         <v>1918</v>
       </c>
       <c r="N23" s="7">
-        <v>1377343</v>
+        <v>1425767</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -6668,7 +6695,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
